--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
@@ -534,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.924897949381895</v>
+        <v>1.058286333333333</v>
       </c>
       <c r="H2">
-        <v>0.924897949381895</v>
+        <v>3.174859</v>
       </c>
       <c r="I2">
-        <v>0.6943079169434283</v>
+        <v>0.6553662741588026</v>
       </c>
       <c r="J2">
-        <v>0.6943079169434283</v>
+        <v>0.6553662741588027</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N2">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q2">
-        <v>89.73124063990969</v>
+        <v>107.7243878540699</v>
       </c>
       <c r="R2">
-        <v>89.73124063990969</v>
+        <v>969.519490686629</v>
       </c>
       <c r="S2">
-        <v>0.1925888525916407</v>
+        <v>0.1838600432349852</v>
       </c>
       <c r="T2">
-        <v>0.1925888525916407</v>
+        <v>0.1838600432349853</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.924897949381895</v>
+        <v>1.058286333333333</v>
       </c>
       <c r="H3">
-        <v>0.924897949381895</v>
+        <v>3.174859</v>
       </c>
       <c r="I3">
-        <v>0.6943079169434283</v>
+        <v>0.6553662741588026</v>
       </c>
       <c r="J3">
-        <v>0.6943079169434283</v>
+        <v>0.6553662741588027</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N3">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q3">
-        <v>50.14603734809613</v>
+        <v>57.51385307527389</v>
       </c>
       <c r="R3">
-        <v>50.14603734809613</v>
+        <v>517.6246776774649</v>
       </c>
       <c r="S3">
-        <v>0.1076277083211531</v>
+        <v>0.09816253982668546</v>
       </c>
       <c r="T3">
-        <v>0.1076277083211531</v>
+        <v>0.09816253982668548</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.924897949381895</v>
+        <v>1.058286333333333</v>
       </c>
       <c r="H4">
-        <v>0.924897949381895</v>
+        <v>3.174859</v>
       </c>
       <c r="I4">
-        <v>0.6943079169434283</v>
+        <v>0.6553662741588026</v>
       </c>
       <c r="J4">
-        <v>0.6943079169434283</v>
+        <v>0.6553662741588027</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N4">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q4">
-        <v>112.6046800919004</v>
+        <v>129.3800365376035</v>
       </c>
       <c r="R4">
-        <v>112.6046800919004</v>
+        <v>1164.420328838432</v>
       </c>
       <c r="S4">
-        <v>0.2416817819601442</v>
+        <v>0.2208211119637292</v>
       </c>
       <c r="T4">
-        <v>0.2416817819601442</v>
+        <v>0.2208211119637292</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.924897949381895</v>
+        <v>1.058286333333333</v>
       </c>
       <c r="H5">
-        <v>0.924897949381895</v>
+        <v>3.174859</v>
       </c>
       <c r="I5">
-        <v>0.6943079169434283</v>
+        <v>0.6553662741588026</v>
       </c>
       <c r="J5">
-        <v>0.6943079169434283</v>
+        <v>0.6553662741588027</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N5">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q5">
-        <v>63.01661037273586</v>
+        <v>79.51658933859932</v>
       </c>
       <c r="R5">
-        <v>63.01661037273586</v>
+        <v>715.6493040473939</v>
       </c>
       <c r="S5">
-        <v>0.1352516314201259</v>
+        <v>0.1357160049356557</v>
       </c>
       <c r="T5">
-        <v>0.1352516314201259</v>
+        <v>0.1357160049356557</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.924897949381895</v>
+        <v>1.058286333333333</v>
       </c>
       <c r="H6">
-        <v>0.924897949381895</v>
+        <v>3.174859</v>
       </c>
       <c r="I6">
-        <v>0.6943079169434283</v>
+        <v>0.6553662741588026</v>
       </c>
       <c r="J6">
-        <v>0.6943079169434283</v>
+        <v>0.6553662741588027</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N6">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q6">
-        <v>7.994250238928099</v>
+        <v>9.847043901008888</v>
       </c>
       <c r="R6">
-        <v>7.994250238928099</v>
+        <v>88.62339510907998</v>
       </c>
       <c r="S6">
-        <v>0.01715794265036434</v>
+        <v>0.01680657419774691</v>
       </c>
       <c r="T6">
-        <v>0.01715794265036434</v>
+        <v>0.01680657419774691</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.407216990994415</v>
+        <v>0.556515</v>
       </c>
       <c r="H7">
-        <v>0.407216990994415</v>
+        <v>1.669545</v>
       </c>
       <c r="I7">
-        <v>0.3056920830565717</v>
+        <v>0.3446337258411974</v>
       </c>
       <c r="J7">
-        <v>0.3056920830565717</v>
+        <v>0.3446337258411974</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N7">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q7">
-        <v>39.50715409845957</v>
+        <v>56.64840962065499</v>
       </c>
       <c r="R7">
-        <v>39.50715409845957</v>
+        <v>509.835686585895</v>
       </c>
       <c r="S7">
-        <v>0.08479362842554279</v>
+        <v>0.09668543260748066</v>
       </c>
       <c r="T7">
-        <v>0.08479362842554279</v>
+        <v>0.09668543260748068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.407216990994415</v>
+        <v>0.556515</v>
       </c>
       <c r="H8">
-        <v>0.407216990994415</v>
+        <v>1.669545</v>
       </c>
       <c r="I8">
-        <v>0.3056920830565717</v>
+        <v>0.3446337258411974</v>
       </c>
       <c r="J8">
-        <v>0.3056920830565717</v>
+        <v>0.3446337258411974</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N8">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q8">
-        <v>22.07845573971925</v>
+        <v>30.244481985675</v>
       </c>
       <c r="R8">
-        <v>22.07845573971925</v>
+        <v>272.200337871075</v>
       </c>
       <c r="S8">
-        <v>0.04738666742580028</v>
+        <v>0.05162017511799535</v>
       </c>
       <c r="T8">
-        <v>0.04738666742580028</v>
+        <v>0.05162017511799535</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.407216990994415</v>
+        <v>0.556515</v>
       </c>
       <c r="H9">
-        <v>0.407216990994415</v>
+        <v>1.669545</v>
       </c>
       <c r="I9">
-        <v>0.3056920830565717</v>
+        <v>0.3446337258411974</v>
       </c>
       <c r="J9">
-        <v>0.3056920830565717</v>
+        <v>0.3446337258411974</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N9">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q9">
-        <v>49.57794427975193</v>
+        <v>68.03634211823999</v>
       </c>
       <c r="R9">
-        <v>49.57794427975193</v>
+        <v>612.3270790641599</v>
       </c>
       <c r="S9">
-        <v>0.1064084184571387</v>
+        <v>0.1161219390761871</v>
       </c>
       <c r="T9">
-        <v>0.1064084184571387</v>
+        <v>0.1161219390761871</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.407216990994415</v>
+        <v>0.556515</v>
       </c>
       <c r="H10">
-        <v>0.407216990994415</v>
+        <v>1.669545</v>
       </c>
       <c r="I10">
-        <v>0.3056920830565717</v>
+        <v>0.3446337258411974</v>
       </c>
       <c r="J10">
-        <v>0.3056920830565717</v>
+        <v>0.3446337258411974</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N10">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q10">
-        <v>27.74515229037145</v>
+        <v>41.81493544983</v>
       </c>
       <c r="R10">
-        <v>27.74515229037145</v>
+        <v>376.33441904847</v>
       </c>
       <c r="S10">
-        <v>0.05954901555441537</v>
+        <v>0.07136820169346082</v>
       </c>
       <c r="T10">
-        <v>0.05954901555441537</v>
+        <v>0.07136820169346084</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.407216990994415</v>
+        <v>0.556515</v>
       </c>
       <c r="H11">
-        <v>0.407216990994415</v>
+        <v>1.669545</v>
       </c>
       <c r="I11">
-        <v>0.3056920830565717</v>
+        <v>0.3446337258411974</v>
       </c>
       <c r="J11">
-        <v>0.3056920830565717</v>
+        <v>0.3446337258411974</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N11">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q11">
-        <v>3.5197337497918</v>
+        <v>5.1782088306</v>
       </c>
       <c r="R11">
-        <v>3.5197337497918</v>
+        <v>46.60387947539999</v>
       </c>
       <c r="S11">
-        <v>0.007554353193674491</v>
+        <v>0.008837977346073439</v>
       </c>
       <c r="T11">
-        <v>0.007554353193674491</v>
+        <v>0.008837977346073439</v>
       </c>
     </row>
   </sheetData>
